--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1964807.091515827</v>
+        <v>1926770.475334551</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779181</v>
+        <v>421727.3537779183</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481813</v>
+        <v>7956703.636481815</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7810615.620664871</v>
+        <v>7810615.62066487</v>
       </c>
     </row>
     <row r="11">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G2" t="n">
-        <v>168.7978542790847</v>
+        <v>168.1385771445223</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I2" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.8376270676311</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>23.83200668112464</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.15457984420474</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>121.8851214361018</v>
       </c>
       <c r="F5" t="n">
-        <v>7.293863480540836</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G5" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>197.3086384053327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>130.0680300883887</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>199.0415196060769</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.293863480540836</v>
-      </c>
       <c r="G8" t="n">
-        <v>234.2953140259425</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>59.33202238395851</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>138.3069154683749</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>117.9287471893071</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.6097194764729</v>
@@ -1420,19 +1420,19 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>26.17309289616616</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>86.65238518501074</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -1517,7 +1517,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.41480556394149</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.95965503998601</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>120.6142492093283</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>228.3315283052808</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>215.9633348765399</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8560777200009522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>135.3570519053243</v>
@@ -1742,7 +1742,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6133508632724</v>
+        <v>222.8632370921771</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35.77668949144859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>150.8573325918307</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -1861,10 +1861,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
-        <v>168.5718209918922</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>51.08315982662424</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -1937,13 +1937,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>94.12953483606209</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
@@ -2010,22 +2010,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>100.4021213728588</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.6686349500177</v>
       </c>
       <c r="I19" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>100.150424535553</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>6.683604527001598</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>93.41153743527431</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2171,7 +2171,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.3570519053243</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
-        <v>64.66640004843207</v>
+        <v>154.8379018919794</v>
       </c>
       <c r="T21" t="n">
         <v>195.6974464808964</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>156.9814653896995</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>182.7513136646478</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>175.6322887537066</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -2332,13 +2332,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>105.8414377504999</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T24" t="n">
-        <v>50.4411006262517</v>
+        <v>103.7758308662536</v>
       </c>
       <c r="U24" t="n">
         <v>224.6133508632724</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>139.631009676032</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>223.709992168086</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>322.4281860353173</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>177.493467653868</v>
@@ -2614,13 +2614,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>129.9769742472669</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -2651,10 +2651,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S27" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>20.01807788763127</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.3094207068133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S29" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>34.70302142096197</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -2860,7 +2860,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>184.6020797085213</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853823</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I30" t="n">
         <v>63.56783007605712</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S30" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T30" t="n">
         <v>195.6974464808964</v>
@@ -2939,7 +2939,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>58.41480556394149</v>
       </c>
     </row>
     <row r="31">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>35.77668949144848</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>56.37343923688373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>330.1350606864243</v>
+        <v>273.2964250394893</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>22.34031300679495</v>
+        <v>22.34031300679451</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S33" t="n">
         <v>156.5880156630749</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.372581720994089</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>177.6533237264606</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>216.719181216021</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>157.2246747536534</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>198.5111874003274</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>94.12953483606209</v>
       </c>
       <c r="H36" t="n">
-        <v>22.34031300679495</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>110.574336931324</v>
+        <v>3.372581720994004</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>217.4284629722708</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>247.3324629499137</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>25.76923807275637</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3635,7 +3635,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
-        <v>50.4411006262517</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U39" t="n">
         <v>224.6133508632724</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>22.95965503998601</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3311041893321</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>87.45701295491843</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>223.5678472477558</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>16.67845590345496</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -3808,7 +3808,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>53.66853612673689</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
         <v>104.0288287853823</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5880156630749</v>
+        <v>128.2342301244892</v>
       </c>
       <c r="T42" t="n">
         <v>195.6974464808964</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>34.96603693392709</v>
       </c>
       <c r="D43" t="n">
-        <v>5.408972804184477</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>267.2218092854453</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>51.08315982662424</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
-        <v>195.6974464808964</v>
+        <v>114.0089307023089</v>
       </c>
       <c r="U45" t="n">
         <v>224.6133508632724</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.91807731728885</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.6245410698995</v>
+        <v>190.3615285297116</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4315,19 +4315,19 @@
         <v>953.8515700725947</v>
       </c>
       <c r="E2" t="n">
+        <v>953.8515700725947</v>
+      </c>
+      <c r="F2" t="n">
         <v>676.7972192224911</v>
       </c>
-      <c r="F2" t="n">
-        <v>399.7428683723875</v>
-      </c>
       <c r="G2" t="n">
-        <v>229.2399852622009</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2399852622009</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3200212191178</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3200212191178</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D3" t="n">
-        <v>109.3200212191178</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E3" t="n">
-        <v>109.3200212191178</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F3" t="n">
-        <v>109.3200212191178</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4415,46 +4415,46 @@
         <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1846636454791</v>
+        <v>355.48282099504</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7256329136656</v>
+        <v>627.0237902632265</v>
       </c>
       <c r="N3" t="n">
-        <v>704.266602181852</v>
+        <v>898.564759531413</v>
       </c>
       <c r="O3" t="n">
-        <v>972.1462211591727</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1001.483734658237</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T3" t="n">
-        <v>801.0973387912989</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U3" t="n">
-        <v>574.1708973092774</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V3" t="n">
-        <v>339.9196538348783</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="W3" t="n">
-        <v>315.8469198135402</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="X3" t="n">
-        <v>109.3200212191178</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.3200212191178</v>
+        <v>926.4669324920217</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>177.254368019049</v>
       </c>
       <c r="I4" t="n">
         <v>21.9427045873282</v>
@@ -4518,22 +4518,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>252.2782741702153</v>
+        <v>699.833627065984</v>
       </c>
       <c r="C5" t="n">
-        <v>252.2782741702153</v>
+        <v>699.833627065984</v>
       </c>
       <c r="D5" t="n">
-        <v>252.2782741702153</v>
+        <v>699.833627065984</v>
       </c>
       <c r="E5" t="n">
-        <v>252.2782741702153</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F5" t="n">
-        <v>244.9107353009821</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G5" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
         <v>22.60864108688619</v>
@@ -4570,10 +4570,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M5" t="n">
         <v>586.1689795623907</v>
@@ -4597,22 +4597,22 @@
         <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6342799752003</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6342799752003</v>
+        <v>699.833627065984</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6342799752003</v>
+        <v>699.833627065984</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6342799752003</v>
+        <v>699.833627065984</v>
       </c>
       <c r="X5" t="n">
-        <v>451.5799291250968</v>
+        <v>699.833627065984</v>
       </c>
       <c r="Y5" t="n">
-        <v>252.2782741702153</v>
+        <v>699.833627065984</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>264.902851668663</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>264.902851668663</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>264.902851668663</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>264.902851668663</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>264.902851668663</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H6" t="n">
         <v>21.9427045873282</v>
@@ -4646,16 +4646,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1441712859057</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N6" t="n">
         <v>630.6851405540922</v>
@@ -4670,28 +4670,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T6" t="n">
-        <v>830.8154377838487</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U6" t="n">
-        <v>830.8154377838487</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V6" t="n">
-        <v>596.5641943094495</v>
+        <v>264.902851668663</v>
       </c>
       <c r="W6" t="n">
-        <v>395.5121543033111</v>
+        <v>264.902851668663</v>
       </c>
       <c r="X6" t="n">
-        <v>188.9852557088886</v>
+        <v>264.902851668663</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.9852557088886</v>
+        <v>264.902851668663</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4752,25 +4752,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="C8" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="D8" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="E8" t="n">
         <v>543.0265276662028</v>
       </c>
-      <c r="C8" t="n">
-        <v>543.0265276662028</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>265.9721768160992</v>
       </c>
-      <c r="E8" t="n">
-        <v>265.9721768160992</v>
-      </c>
-      <c r="F8" t="n">
-        <v>258.6046379468661</v>
-      </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4846,7 +4846,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y8" t="n">
         <v>820.0808785163064</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>563.4622817442676</v>
+        <v>169.25135696049</v>
       </c>
       <c r="C9" t="n">
-        <v>563.4622817442676</v>
+        <v>169.25135696049</v>
       </c>
       <c r="D9" t="n">
-        <v>415.8739751032115</v>
+        <v>169.25135696049</v>
       </c>
       <c r="E9" t="n">
-        <v>415.8739751032115</v>
+        <v>169.25135696049</v>
       </c>
       <c r="F9" t="n">
-        <v>270.9181851198283</v>
+        <v>169.25135696049</v>
       </c>
       <c r="G9" t="n">
-        <v>133.521003094533</v>
+        <v>169.25135696049</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4886,19 +4886,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>409.2622680873972</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>680.8032373555836</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>948.6828563329043</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4907,28 +4907,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U9" t="n">
-        <v>870.2087878843885</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V9" t="n">
-        <v>730.504832865828</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W9" t="n">
-        <v>730.504832865828</v>
+        <v>169.25135696049</v>
       </c>
       <c r="X9" t="n">
-        <v>730.504832865828</v>
+        <v>169.25135696049</v>
       </c>
       <c r="Y9" t="n">
-        <v>730.504832865828</v>
+        <v>169.25135696049</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1486.519595308663</v>
+        <v>1703.186421409711</v>
       </c>
       <c r="C11" t="n">
-        <v>1486.519595308663</v>
+        <v>1703.186421409711</v>
       </c>
       <c r="D11" t="n">
-        <v>1486.519595308663</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.399648652797</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F11" t="n">
         <v>955.9917057431599</v>
@@ -5041,19 +5041,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K11" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5068,25 +5068,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T11" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U11" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.519595308663</v>
+        <v>2444.849579987438</v>
       </c>
       <c r="W11" t="n">
-        <v>1486.519595308663</v>
+        <v>2090.778754734353</v>
       </c>
       <c r="X11" t="n">
-        <v>1486.519595308663</v>
+        <v>2090.778754734353</v>
       </c>
       <c r="Y11" t="n">
-        <v>1486.519595308663</v>
+        <v>2090.778754734353</v>
       </c>
     </row>
     <row r="12">
@@ -5129,16 +5129,16 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M12" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N12" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O12" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
@@ -5156,13 +5156,13 @@
         <v>1898.972060912078</v>
       </c>
       <c r="V12" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W12" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y12" t="n">
         <v>1146.674573071598</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>529.7646791178286</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="C13" t="n">
-        <v>529.7646791178286</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="D13" t="n">
-        <v>529.7646791178286</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="E13" t="n">
-        <v>529.7646791178286</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F13" t="n">
-        <v>529.7646791178286</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G13" t="n">
-        <v>360.7433617548669</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5223,28 +5223,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V13" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W13" t="n">
-        <v>529.7646791178286</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X13" t="n">
-        <v>529.7646791178286</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y13" t="n">
-        <v>529.7646791178286</v>
+        <v>390.5596952627542</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1937.929891342735</v>
+        <v>1026.536145436135</v>
       </c>
       <c r="C14" t="n">
-        <v>1567.237875505419</v>
+        <v>655.8441295988197</v>
       </c>
       <c r="D14" t="n">
-        <v>1336.599968126347</v>
+        <v>655.8441295988197</v>
       </c>
       <c r="E14" t="n">
-        <v>949.6120532220164</v>
+        <v>268.8562146944889</v>
       </c>
       <c r="F14" t="n">
-        <v>538.2041103123792</v>
+        <v>268.8562146944889</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S14" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T14" t="n">
-        <v>2292.00071659582</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U14" t="n">
-        <v>2292.00071659582</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.00071659582</v>
+        <v>1804.721480529702</v>
       </c>
       <c r="W14" t="n">
-        <v>1937.929891342735</v>
+        <v>1804.721480529702</v>
       </c>
       <c r="X14" t="n">
-        <v>1937.929891342735</v>
+        <v>1804.721480529702</v>
       </c>
       <c r="Y14" t="n">
-        <v>1937.929891342735</v>
+        <v>1414.128478760777</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>832.9084402786798</v>
+        <v>834.6762319666548</v>
       </c>
       <c r="C15" t="n">
-        <v>660.1553252004969</v>
+        <v>661.9231168884719</v>
       </c>
       <c r="D15" t="n">
-        <v>659.290600230799</v>
+        <v>514.3348102474158</v>
       </c>
       <c r="E15" t="n">
-        <v>501.6810712336537</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F15" t="n">
         <v>356.7252812502705</v>
@@ -5357,25 +5357,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K15" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L15" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N15" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O15" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P15" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5390,19 +5390,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U15" t="n">
-        <v>1898.972060912078</v>
+        <v>1900.739852600053</v>
       </c>
       <c r="V15" t="n">
-        <v>1664.720817437679</v>
+        <v>1666.488609125654</v>
       </c>
       <c r="W15" t="n">
-        <v>1412.206325771012</v>
+        <v>1413.974117458987</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.67942717659</v>
+        <v>1207.447218864565</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.9509914002402</v>
+        <v>1001.718783088215</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D16" t="n">
-        <v>643.4040259657511</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E16" t="n">
-        <v>494.9448096291862</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>347.3094344677676</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>347.3094344677676</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
         <v>50.71143199091319</v>
@@ -5472,16 +5472,16 @@
         <v>679.5420961591335</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1367.399648652797</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C17" t="n">
-        <v>1367.399648652797</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D17" t="n">
-        <v>1367.399648652797</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
         <v>829.7261648535823</v>
@@ -5527,7 +5527,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.297032887182</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2145.584983746364</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U17" t="n">
-        <v>2145.584983746364</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V17" t="n">
-        <v>2145.584983746364</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="W17" t="n">
-        <v>2145.584983746364</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="X17" t="n">
-        <v>2145.584983746364</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y17" t="n">
-        <v>1754.991981977439</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D18" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E18" t="n">
-        <v>354.9574895622956</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F18" t="n">
-        <v>210.0016995789124</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G18" t="n">
-        <v>114.9213613606679</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
@@ -5618,28 +5618,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646.2135925865364</v>
+        <v>357.4217947416373</v>
       </c>
       <c r="C19" t="n">
-        <v>646.2135925865364</v>
+        <v>357.4217947416373</v>
       </c>
       <c r="D19" t="n">
-        <v>646.2135925865364</v>
+        <v>357.4217947416373</v>
       </c>
       <c r="E19" t="n">
-        <v>646.2135925865364</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F19" t="n">
-        <v>498.5782174251177</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G19" t="n">
-        <v>397.1619332101088</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H19" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I19" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J19" t="n">
         <v>50.71143199091319</v>
@@ -5694,31 +5694,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>646.2135925865364</v>
+        <v>578.3800511737264</v>
       </c>
       <c r="S19" t="n">
-        <v>646.2135925865364</v>
+        <v>578.3800511737264</v>
       </c>
       <c r="T19" t="n">
-        <v>646.2135925865364</v>
+        <v>578.3800511737264</v>
       </c>
       <c r="U19" t="n">
-        <v>646.2135925865364</v>
+        <v>578.3800511737264</v>
       </c>
       <c r="V19" t="n">
-        <v>646.2135925865364</v>
+        <v>578.3800511737264</v>
       </c>
       <c r="W19" t="n">
-        <v>646.2135925865364</v>
+        <v>578.3800511737264</v>
       </c>
       <c r="X19" t="n">
-        <v>646.2135925865364</v>
+        <v>578.3800511737264</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.2135925865364</v>
+        <v>357.4217947416373</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>905.1620267584398</v>
+        <v>1361.249973554121</v>
       </c>
       <c r="C20" t="n">
-        <v>905.1620267584398</v>
+        <v>1361.249973554121</v>
       </c>
       <c r="D20" t="n">
-        <v>544.9552259962192</v>
+        <v>1361.249973554121</v>
       </c>
       <c r="E20" t="n">
-        <v>544.9552259962192</v>
+        <v>974.2620586497901</v>
       </c>
       <c r="F20" t="n">
-        <v>544.9552259962192</v>
+        <v>562.8541157401528</v>
       </c>
       <c r="G20" t="n">
-        <v>538.2041103123792</v>
+        <v>145.0665203093721</v>
       </c>
       <c r="H20" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S20" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T20" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U20" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V20" t="n">
-        <v>2024.433529670521</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W20" t="n">
-        <v>1670.362704417435</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="X20" t="n">
-        <v>1295.755028527365</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="Y20" t="n">
-        <v>905.1620267584398</v>
+        <v>1748.842306878762</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.6320219500381</v>
+        <v>834.6762319666548</v>
       </c>
       <c r="C21" t="n">
-        <v>806.8789068718552</v>
+        <v>661.9231168884719</v>
       </c>
       <c r="D21" t="n">
-        <v>659.290600230799</v>
+        <v>514.3348102474158</v>
       </c>
       <c r="E21" t="n">
-        <v>501.6810712336537</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F21" t="n">
         <v>356.7252812502705</v>
@@ -5834,49 +5834,49 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O21" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P21" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S21" t="n">
-        <v>2470.252003537142</v>
+        <v>2325.296213553759</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.5778151726</v>
+        <v>2127.622025189217</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.695642583436</v>
+        <v>1900.739852600053</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.444399109037</v>
+        <v>1666.488609125654</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.92990744237</v>
+        <v>1413.974117458987</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.403008847948</v>
+        <v>1207.447218864565</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.674573071598</v>
+        <v>1001.718783088215</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="C22" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="D22" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="E22" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="F22" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="G22" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H22" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I22" t="n">
         <v>50.71143199091319</v>
@@ -5937,25 +5937,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W22" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="X22" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2292.00071659582</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="C23" t="n">
-        <v>2114.594364319349</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="D23" t="n">
-        <v>1754.387563557128</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E23" t="n">
-        <v>1367.399648652797</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F23" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G23" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K23" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
@@ -6019,22 +6019,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T23" t="n">
-        <v>2292.00071659582</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U23" t="n">
-        <v>2292.00071659582</v>
+        <v>1965.378124272678</v>
       </c>
       <c r="V23" t="n">
-        <v>2292.00071659582</v>
+        <v>1965.378124272678</v>
       </c>
       <c r="W23" t="n">
-        <v>2292.00071659582</v>
+        <v>1611.307299019593</v>
       </c>
       <c r="X23" t="n">
-        <v>2292.00071659582</v>
+        <v>1236.699623129523</v>
       </c>
       <c r="Y23" t="n">
-        <v>2292.00071659582</v>
+        <v>1236.699623129523</v>
       </c>
     </row>
     <row r="24">
@@ -6068,34 +6068,34 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O24" t="n">
-        <v>2045.703836711752</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S24" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T24" t="n">
         <v>2272.5778151726</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.71143199091319</v>
+        <v>497.6393774816751</v>
       </c>
       <c r="C25" t="n">
-        <v>50.71143199091319</v>
+        <v>497.6393774816751</v>
       </c>
       <c r="D25" t="n">
-        <v>50.71143199091319</v>
+        <v>497.6393774816751</v>
       </c>
       <c r="E25" t="n">
-        <v>50.71143199091319</v>
+        <v>356.5979535664912</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G25" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H25" t="n">
         <v>50.71143199091319</v>
@@ -6189,10 +6189,10 @@
         <v>679.5420961591335</v>
       </c>
       <c r="X25" t="n">
-        <v>453.5724071004607</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y25" t="n">
-        <v>232.6141506683716</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>908.896126149695</v>
+        <v>763.3843832945544</v>
       </c>
       <c r="C26" t="n">
-        <v>538.2041103123792</v>
+        <v>437.699346895244</v>
       </c>
       <c r="D26" t="n">
-        <v>538.2041103123792</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E26" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F26" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K26" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M26" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6250,28 +6250,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R26" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.288667455001</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U26" t="n">
-        <v>1818.371334220299</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V26" t="n">
-        <v>1687.081461243261</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="W26" t="n">
-        <v>1687.081461243261</v>
+        <v>1528.58506095355</v>
       </c>
       <c r="X26" t="n">
-        <v>1687.081461243261</v>
+        <v>1153.977385063479</v>
       </c>
       <c r="Y26" t="n">
-        <v>1296.488459474336</v>
+        <v>763.3843832945544</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C27" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E27" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F27" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>181.9669871305373</v>
+        <v>181.9669871305374</v>
       </c>
       <c r="L27" t="n">
         <v>573.239262455199</v>
@@ -6329,28 +6329,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R27" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S27" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X27" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="F28" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="G28" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H28" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I28" t="n">
         <v>50.71143199091319</v>
@@ -6396,40 +6396,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N28" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O28" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P28" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q28" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R28" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S28" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521642</v>
       </c>
       <c r="T28" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521642</v>
       </c>
       <c r="U28" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521642</v>
       </c>
       <c r="V28" t="n">
-        <v>679.5420961591335</v>
+        <v>209.2785687481853</v>
       </c>
       <c r="W28" t="n">
-        <v>390.5596952627542</v>
+        <v>209.2785687481853</v>
       </c>
       <c r="X28" t="n">
-        <v>162.1350892705226</v>
+        <v>209.2785687481853</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>209.2785687481853</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>750.083323368227</v>
+        <v>437.699346895244</v>
       </c>
       <c r="C29" t="n">
-        <v>379.3913075309111</v>
+        <v>437.699346895244</v>
       </c>
       <c r="D29" t="n">
-        <v>379.3913075309111</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E29" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F29" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G29" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
         <v>50.71143199091319</v>
@@ -6463,16 +6463,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M29" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N29" t="n">
         <v>1735.423100897411</v>
@@ -6493,22 +6493,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T29" t="n">
-        <v>2256.947159604949</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U29" t="n">
-        <v>2256.947159604949</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V29" t="n">
-        <v>2256.947159604949</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="W29" t="n">
-        <v>1902.876334351864</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="X29" t="n">
-        <v>1528.268658461794</v>
+        <v>1011.75842740021</v>
       </c>
       <c r="Y29" t="n">
-        <v>1137.675656692868</v>
+        <v>825.2916802198854</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>356.7252812502705</v>
       </c>
       <c r="G30" t="n">
-        <v>220.0009863964076</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H30" t="n">
         <v>114.9213613606679</v>
@@ -6545,22 +6545,22 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P30" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
@@ -6569,22 +6569,22 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S30" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X30" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y30" t="n">
         <v>1146.674573071598</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>219.7382531335418</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="C31" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="D31" t="n">
-        <v>50.71143199091319</v>
+        <v>643.4040259657511</v>
       </c>
       <c r="E31" t="n">
-        <v>50.71143199091319</v>
+        <v>494.9448096291862</v>
       </c>
       <c r="F31" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="G31" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H31" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I31" t="n">
         <v>50.71143199091319</v>
@@ -6633,40 +6633,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O31" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X31" t="n">
-        <v>622.5992282430893</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y31" t="n">
-        <v>401.6409718110002</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2072.288667455001</v>
+        <v>1084.448357721943</v>
       </c>
       <c r="C32" t="n">
-        <v>1701.596651617685</v>
+        <v>713.7563418846272</v>
       </c>
       <c r="D32" t="n">
-        <v>1341.389850855465</v>
+        <v>713.7563418846272</v>
       </c>
       <c r="E32" t="n">
-        <v>954.401935951134</v>
+        <v>326.7684269802964</v>
       </c>
       <c r="F32" t="n">
-        <v>542.9939930414967</v>
+        <v>326.7684269802964</v>
       </c>
       <c r="G32" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="I32" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M32" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N32" t="n">
         <v>1735.42310089741</v>
       </c>
       <c r="O32" t="n">
-        <v>2113.071138623965</v>
+        <v>2113.071138623964</v>
       </c>
       <c r="P32" t="n">
-        <v>2398.446208459429</v>
+        <v>2398.446208459428</v>
       </c>
       <c r="Q32" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R32" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U32" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V32" t="n">
-        <v>2072.288667455001</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="W32" t="n">
-        <v>2072.288667455001</v>
+        <v>1849.649035380938</v>
       </c>
       <c r="X32" t="n">
-        <v>2072.288667455001</v>
+        <v>1475.041359490868</v>
       </c>
       <c r="Y32" t="n">
-        <v>2072.288667455001</v>
+        <v>1084.448357721943</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>832.9084402786798</v>
+        <v>832.9084402786793</v>
       </c>
       <c r="C33" t="n">
-        <v>660.1553252004969</v>
+        <v>660.1553252004965</v>
       </c>
       <c r="D33" t="n">
-        <v>512.5670185594408</v>
+        <v>512.5670185594404</v>
       </c>
       <c r="E33" t="n">
-        <v>354.9574895622956</v>
+        <v>354.9574895622951</v>
       </c>
       <c r="F33" t="n">
-        <v>210.0016995789124</v>
+        <v>210.001699578912</v>
       </c>
       <c r="G33" t="n">
-        <v>73.27740472504951</v>
+        <v>73.27740472504905</v>
       </c>
       <c r="H33" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="I33" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J33" t="n">
-        <v>120.4127199202217</v>
+        <v>120.4127199202216</v>
       </c>
       <c r="K33" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305369</v>
       </c>
       <c r="L33" t="n">
-        <v>757.4212114061545</v>
+        <v>573.2392624551985</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N33" t="n">
         <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
-        <v>2045.703836711752</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P33" t="n">
         <v>2370.209254145837</v>
@@ -6803,10 +6803,10 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R33" t="n">
-        <v>2481.698134656769</v>
+        <v>2481.698134656768</v>
       </c>
       <c r="S33" t="n">
-        <v>2323.528421865784</v>
+        <v>2323.528421865783</v>
       </c>
       <c r="T33" t="n">
         <v>2125.854233501242</v>
@@ -6821,10 +6821,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X33" t="n">
-        <v>1205.67942717659</v>
+        <v>1205.679427176589</v>
       </c>
       <c r="Y33" t="n">
-        <v>999.9509914002402</v>
+        <v>999.9509914002398</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>510.5152750165048</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>360.0046017695155</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>360.0046017695155</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091319</v>
+        <v>212.3692266080969</v>
       </c>
       <c r="G34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="I34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="K34" t="n">
         <v>100.3216812543103</v>
@@ -6870,40 +6870,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N34" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O34" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W34" t="n">
-        <v>500.0942944152339</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X34" t="n">
-        <v>271.6696884230023</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>898.4109110745998</v>
+        <v>1374.506545869713</v>
       </c>
       <c r="C35" t="n">
-        <v>898.4109110745998</v>
+        <v>1374.506545869713</v>
       </c>
       <c r="D35" t="n">
-        <v>538.2041103123792</v>
+        <v>1014.299745107493</v>
       </c>
       <c r="E35" t="n">
-        <v>538.2041103123792</v>
+        <v>627.311830203162</v>
       </c>
       <c r="F35" t="n">
-        <v>538.2041103123792</v>
+        <v>627.311830203162</v>
       </c>
       <c r="G35" t="n">
-        <v>538.2041103123792</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="H35" t="n">
-        <v>209.5242347723812</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K35" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724816</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S35" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T35" t="n">
-        <v>2072.288667455001</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U35" t="n">
-        <v>1818.371334220299</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.519595308663</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="W35" t="n">
-        <v>1286.003244399241</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="X35" t="n">
-        <v>1286.003244399241</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="Y35" t="n">
-        <v>1286.003244399241</v>
+        <v>1593.41480972428</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G36" t="n">
-        <v>73.27740472504951</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="H36" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K36" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L36" t="n">
-        <v>738.601607855021</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O36" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1906.740935377439</v>
+        <v>676.1354479561091</v>
       </c>
       <c r="C37" t="n">
-        <v>1906.740935377439</v>
+        <v>507.1086268134805</v>
       </c>
       <c r="D37" t="n">
-        <v>1906.740935377439</v>
+        <v>356.5979535664912</v>
       </c>
       <c r="E37" t="n">
-        <v>1906.740935377439</v>
+        <v>356.5979535664912</v>
       </c>
       <c r="F37" t="n">
-        <v>1906.740935377439</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G37" t="n">
-        <v>1906.740935377439</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K37" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L37" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M37" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O37" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.343101557587</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.432184803019</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V37" t="n">
-        <v>1906.740935377439</v>
+        <v>676.1354479561091</v>
       </c>
       <c r="W37" t="n">
-        <v>1906.740935377439</v>
+        <v>676.1354479561091</v>
       </c>
       <c r="X37" t="n">
-        <v>1906.740935377439</v>
+        <v>676.1354479561091</v>
       </c>
       <c r="Y37" t="n">
-        <v>1906.740935377439</v>
+        <v>676.1354479561091</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1486.519595308663</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="C38" t="n">
-        <v>1486.519595308663</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="D38" t="n">
-        <v>1266.894885235662</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="E38" t="n">
-        <v>879.9069703313312</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F38" t="n">
-        <v>468.4990274216939</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G38" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H38" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724806</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535817</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M38" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N38" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O38" t="n">
         <v>2113.071138623965</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S38" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T38" t="n">
-        <v>2072.288667455001</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U38" t="n">
-        <v>1818.371334220299</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.519595308663</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="W38" t="n">
-        <v>1486.519595308663</v>
+        <v>1734.177040836727</v>
       </c>
       <c r="X38" t="n">
-        <v>1486.519595308663</v>
+        <v>1734.177040836727</v>
       </c>
       <c r="Y38" t="n">
-        <v>1486.519595308663</v>
+        <v>1343.584039067801</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
         <v>806.8789068718552</v>
@@ -7253,25 +7253,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K39" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L39" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N39" t="n">
-        <v>1805.095121106633</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O39" t="n">
-        <v>2229.885785662707</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P39" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
@@ -7283,22 +7283,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>390.5596952627542</v>
+        <v>370.2434226008642</v>
       </c>
       <c r="C40" t="n">
-        <v>390.5596952627542</v>
+        <v>370.2434226008642</v>
       </c>
       <c r="D40" t="n">
-        <v>390.5596952627542</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E40" t="n">
-        <v>367.3681245152936</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F40" t="n">
         <v>219.7327493538749</v>
@@ -7356,28 +7356,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>679.5420961591335</v>
+        <v>591.2016790329533</v>
       </c>
       <c r="S40" t="n">
-        <v>679.5420961591335</v>
+        <v>591.2016790329533</v>
       </c>
       <c r="T40" t="n">
-        <v>679.5420961591335</v>
+        <v>591.2016790329533</v>
       </c>
       <c r="U40" t="n">
-        <v>679.5420961591335</v>
+        <v>591.2016790329533</v>
       </c>
       <c r="V40" t="n">
-        <v>679.5420961591335</v>
+        <v>591.2016790329533</v>
       </c>
       <c r="W40" t="n">
-        <v>390.5596952627542</v>
+        <v>591.2016790329533</v>
       </c>
       <c r="X40" t="n">
-        <v>390.5596952627542</v>
+        <v>591.2016790329533</v>
       </c>
       <c r="Y40" t="n">
-        <v>390.5596952627542</v>
+        <v>370.2434226008642</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>750.083323368227</v>
+        <v>1441.519851419312</v>
       </c>
       <c r="C41" t="n">
-        <v>379.3913075309111</v>
+        <v>1441.519851419312</v>
       </c>
       <c r="D41" t="n">
-        <v>379.3913075309111</v>
+        <v>1081.313050657091</v>
       </c>
       <c r="E41" t="n">
-        <v>379.3913075309111</v>
+        <v>694.3251357527604</v>
       </c>
       <c r="F41" t="n">
-        <v>379.3913075309111</v>
+        <v>694.3251357527604</v>
       </c>
       <c r="G41" t="n">
-        <v>379.3913075309111</v>
+        <v>276.5375403219797</v>
       </c>
       <c r="H41" t="n">
         <v>50.71143199091319</v>
@@ -7435,28 +7435,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S41" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T41" t="n">
-        <v>2251.574998418504</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U41" t="n">
-        <v>2234.728073263499</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V41" t="n">
-        <v>1902.876334351864</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="W41" t="n">
-        <v>1902.876334351864</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="X41" t="n">
-        <v>1528.268658461794</v>
+        <v>1829.112184743953</v>
       </c>
       <c r="Y41" t="n">
-        <v>1137.675656692868</v>
+        <v>1829.112184743953</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>832.9084402786798</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C42" t="n">
-        <v>660.1553252004969</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D42" t="n">
-        <v>512.5670185594408</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E42" t="n">
-        <v>354.9574895622956</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F42" t="n">
-        <v>210.0016995789124</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G42" t="n">
         <v>155.7910570266529</v>
@@ -7493,19 +7493,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K42" t="n">
-        <v>296.4476481521845</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L42" t="n">
-        <v>687.7199234768461</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M42" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N42" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
         <v>2370.209254145837</v>
@@ -7514,28 +7514,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S42" t="n">
-        <v>2323.528421865784</v>
+        <v>2406.042074167387</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501242</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U42" t="n">
-        <v>1898.972060912078</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V42" t="n">
-        <v>1664.720817437679</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W42" t="n">
-        <v>1412.206325771012</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X42" t="n">
-        <v>1205.67942717659</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y42" t="n">
-        <v>999.9509914002402</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2535.571599545659</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="C43" t="n">
-        <v>2535.571599545659</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="D43" t="n">
-        <v>2530.107990652544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E43" t="n">
-        <v>2381.648774315979</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F43" t="n">
-        <v>2234.01339915456</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>2064.992081791599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.571599545659</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T43" t="n">
-        <v>2535.571599545659</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="U43" t="n">
-        <v>2535.571599545659</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="V43" t="n">
-        <v>2535.571599545659</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="W43" t="n">
-        <v>2535.571599545659</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="X43" t="n">
-        <v>2535.571599545659</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="Y43" t="n">
-        <v>2535.571599545659</v>
+        <v>236.5413344640914</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1438.519182975028</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C44" t="n">
-        <v>1067.827167137712</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D44" t="n">
-        <v>707.6203663754918</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E44" t="n">
-        <v>320.632451471161</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F44" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G44" t="n">
         <v>50.71143199091319</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V44" t="n">
-        <v>2203.719860634023</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="W44" t="n">
-        <v>2203.719860634023</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="X44" t="n">
-        <v>1829.112184743953</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y44" t="n">
-        <v>1438.519182975028</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K45" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L45" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O45" t="n">
-        <v>2160.184497733399</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P45" t="n">
-        <v>2484.689915167484</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.571599545659</v>
@@ -7754,25 +7754,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.5778151726</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="C46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="D46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F46" t="n">
-        <v>464.7698324521643</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G46" t="n">
-        <v>295.7485150892027</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
-        <v>137.4973686750433</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I46" t="n">
         <v>50.71143199091319</v>
@@ -7833,25 +7833,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>464.7698324521643</v>
+        <v>487.2577239068995</v>
       </c>
       <c r="T46" t="n">
-        <v>464.7698324521643</v>
+        <v>487.2577239068995</v>
       </c>
       <c r="U46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="V46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="W46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="X46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="Y46" t="n">
-        <v>464.7698324521643</v>
+        <v>198.3468071523319</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>331.3512852849338</v>
       </c>
       <c r="M3" t="n">
         <v>412.8644904155703</v>
@@ -8072,13 +8072,13 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>174.8784211592137</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8218,13 +8218,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L5" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>467.4940748325457</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
         <v>454.8408013884635</v>
@@ -8294,19 +8294,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>221.1367956094978</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8534,22 +8534,22 @@
         <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>280.576939182008</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8777,19 +8777,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>298.290893622267</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
         <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>390.6071114910983</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9020,13 +9020,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>223.5744393700659</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9482,7 +9482,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>256.0341459363813</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9728,16 +9728,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>382.8790379822985</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>312.1915788288343</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>159.4068151580847</v>
+        <v>89.00147381534893</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -10193,7 +10193,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>256.0341459363813</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10430,7 +10430,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534849</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.44770712425047</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10919,10 +10919,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11141,7 +11141,7 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11156,7 +11156,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>215.5642480505376</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789566</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740113</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11393,10 +11393,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>312.1915788288343</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.843347910286</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>265.1892885659803</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>302.3601286263532</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.2563458546445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>144.3768978912163</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
@@ -23427,19 +23427,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>36.05438574068947</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
         <v>212.6245410698995</v>
@@ -23478,7 +23478,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>128.2732044493176</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>197.646384599933</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.750113771095329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>113.2288770230708</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
         <v>49.35397375491781</v>
@@ -23712,16 +23712,16 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>135.2352442955848</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.921646661975842</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>277.4500616958951</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>41.22751706926219</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>104.0288287853823</v>
+        <v>28.3537855385853</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23898,22 +23898,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>66.92898281647324</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>48.12921833533885</v>
       </c>
       <c r="S19" t="n">
         <v>212.6245410698995</v>
@@ -23958,7 +23958,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>406.9261149494713</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>231.9815393493236</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
         <v>217.5149286494106</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.92161561464282</v>
+        <v>1.750113771095499</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>49.35397375491781</v>
@@ -24177,19 +24177,19 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>68.96474761849271</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>103.3412632227677</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>191.352806925236</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>145.5367221518558</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>145.2563458546447</v>
+        <v>91.92161561464286</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>7.343614497167181</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>136.9633875020681</v>
@@ -24429,10 +24429,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>2.430367764223234</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>44.55690964362537</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -24460,10 +24460,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>198.5562472752525</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>160.0656136030525</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24621,10 +24621,10 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I28" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.9462130081922</v>
@@ -24660,16 +24660,16 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.4392531609549</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
@@ -24697,7 +24697,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
         <v>157.2246747536534</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>182.8119072284486</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>202.0849920427145</v>
       </c>
     </row>
     <row r="30">
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>145.2563458546445</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>113.2288770230709</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H31" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>169.7669206954255</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>83.47465879004864</v>
+        <v>140.3132944369835</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>81.6885157785874</v>
+        <v>81.68851577858786</v>
       </c>
       <c r="I33" t="n">
         <v>63.56783007605712</v>
@@ -25077,28 +25077,28 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3311041893321</v>
+        <v>163.958522468338</v>
       </c>
       <c r="H34" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J34" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4392531609549</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>166.997228775374</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>152.0189296002272</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>41.22751706926219</v>
       </c>
       <c r="H36" t="n">
-        <v>81.6885157785874</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25314,28 +25314,28 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>142.3620141356151</v>
+        <v>249.5637693459452</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>139.1762697823276</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>103.1976540506408</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>124.0149691332132</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2796428708918</v>
+        <v>60.82262991597342</v>
       </c>
       <c r="S40" t="n">
         <v>212.6245410698995</v>
@@ -25611,13 +25611,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>101.8252295368421</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>234.6997039989008</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>28.35378553858567</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>132.3705159972752</v>
       </c>
       <c r="D43" t="n">
-        <v>143.5965937103349</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
         <v>136.9633875020681</v>
@@ -25836,10 +25836,10 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S43" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.0218075870219</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>140.0720541950955</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>325.3930767845979</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
@@ -25924,7 +25924,7 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>277.4500616958951</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>81.68851577858757</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>51.04531018477921</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
         <v>49.35397375491781</v>
@@ -26073,13 +26073,13 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>22.26301254018782</v>
       </c>
       <c r="T46" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608146.7881659407</v>
+        <v>608146.7881659409</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608146.7881659407</v>
+        <v>608146.7881659409</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608146.7881659409</v>
+        <v>608146.7881659407</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608146.7881659409</v>
+        <v>608146.7881659407</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608146.7881659407</v>
+        <v>608146.7881659409</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608146.7881659409</v>
+        <v>608146.7881659407</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608146.7881659409</v>
+        <v>608146.7881659407</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608146.7881659409</v>
+        <v>608146.7881659407</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>608146.7881659409</v>
+        <v>608146.7881659407</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>590091.5712458288</v>
       </c>
       <c r="C2" t="n">
-        <v>590091.571245829</v>
+        <v>590091.5712458291</v>
       </c>
       <c r="D2" t="n">
-        <v>590091.571245829</v>
+        <v>590091.5712458291</v>
       </c>
       <c r="E2" t="n">
         <v>397804.5666975183</v>
       </c>
       <c r="F2" t="n">
-        <v>397804.5666975181</v>
+        <v>397804.5666975183</v>
       </c>
       <c r="G2" t="n">
-        <v>397804.5666975183</v>
+        <v>397804.5666975182</v>
       </c>
       <c r="H2" t="n">
         <v>397804.5666975183</v>
       </c>
       <c r="I2" t="n">
-        <v>397804.5666975182</v>
+        <v>397804.5666975183</v>
       </c>
       <c r="J2" t="n">
-        <v>397804.5666975182</v>
+        <v>397804.5666975184</v>
       </c>
       <c r="K2" t="n">
-        <v>397804.5666975182</v>
+        <v>397804.5666975185</v>
       </c>
       <c r="L2" t="n">
         <v>397804.5666975183</v>
       </c>
       <c r="M2" t="n">
+        <v>397804.5666975184</v>
+      </c>
+      <c r="N2" t="n">
+        <v>397804.5666975184</v>
+      </c>
+      <c r="O2" t="n">
         <v>397804.5666975182</v>
-      </c>
-      <c r="N2" t="n">
-        <v>397804.5666975183</v>
-      </c>
-      <c r="O2" t="n">
-        <v>397804.5666975183</v>
       </c>
       <c r="P2" t="n">
         <v>397804.5666975183</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310710.8877942914</v>
+        <v>310710.8877942915</v>
       </c>
       <c r="C4" t="n">
         <v>310710.8877942915</v>
@@ -26429,10 +26429,10 @@
         <v>46215.62445539849</v>
       </c>
       <c r="F4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="G4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="H4" t="n">
         <v>46215.62445539849</v>
@@ -26441,7 +26441,7 @@
         <v>46215.62445539849</v>
       </c>
       <c r="J4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="K4" t="n">
         <v>46215.62445539849</v>
@@ -26453,13 +26453,13 @@
         <v>46215.62445539849</v>
       </c>
       <c r="N4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="O4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="P4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>45292.2611156748</v>
       </c>
       <c r="L5" t="n">
-        <v>45292.2611156748</v>
+        <v>45292.26111567479</v>
       </c>
       <c r="M5" t="n">
         <v>45292.2611156748</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137157.8155974281</v>
+        <v>137157.815597428</v>
       </c>
       <c r="C6" t="n">
-        <v>229076.6279651681</v>
+        <v>229076.6279651682</v>
       </c>
       <c r="D6" t="n">
-        <v>229076.6279651682</v>
+        <v>229076.6279651683</v>
       </c>
       <c r="E6" t="n">
-        <v>-49892.74876023515</v>
+        <v>-56523.33512397006</v>
       </c>
       <c r="F6" t="n">
-        <v>306296.6811264448</v>
+        <v>299666.0947627102</v>
       </c>
       <c r="G6" t="n">
-        <v>306296.681126445</v>
+        <v>299666.0947627101</v>
       </c>
       <c r="H6" t="n">
-        <v>306296.6811264451</v>
+        <v>299666.0947627102</v>
       </c>
       <c r="I6" t="n">
-        <v>306296.6811264449</v>
+        <v>299666.0947627102</v>
       </c>
       <c r="J6" t="n">
-        <v>234531.9686383587</v>
+        <v>227901.382274624</v>
       </c>
       <c r="K6" t="n">
-        <v>306296.6811264449</v>
+        <v>299666.0947627103</v>
       </c>
       <c r="L6" t="n">
-        <v>306296.681126445</v>
+        <v>299666.0947627102</v>
       </c>
       <c r="M6" t="n">
-        <v>216680.6568279075</v>
+        <v>210050.0704641729</v>
       </c>
       <c r="N6" t="n">
-        <v>306296.681126445</v>
+        <v>299666.0947627103</v>
       </c>
       <c r="O6" t="n">
-        <v>306296.681126445</v>
+        <v>299666.09476271</v>
       </c>
       <c r="P6" t="n">
-        <v>306296.6811264451</v>
+        <v>299666.0947627102</v>
       </c>
     </row>
   </sheetData>
@@ -26819,7 +26819,7 @@
         <v>633.8928998864149</v>
       </c>
       <c r="L4" t="n">
-        <v>633.8928998864149</v>
+        <v>633.8928998864147</v>
       </c>
       <c r="M4" t="n">
         <v>633.8928998864149</v>
@@ -27387,22 +27387,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
-        <v>246.0569111247462</v>
+        <v>246.7161882593086</v>
       </c>
       <c r="H2" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27460,22 +27460,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>54.1879568597699</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>226.1573400688754</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -27542,7 +27542,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>149.0055665145194</v>
+        <v>123.8509866703146</v>
       </c>
       <c r="E4" t="n">
         <v>146.9746241731992</v>
@@ -27557,7 +27557,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>88.83884492777894</v>
@@ -27590,7 +27590,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -27624,19 +27624,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>261.2329143191857</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -27681,10 +27681,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>189.3784333459031</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
@@ -27709,10 +27709,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>5.955180116653651</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>50.94782714392312</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>222.3574069614225</v>
+        <v>58.21869003764755</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
@@ -27836,7 +27836,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>180.5594513778884</v>
+        <v>173.92486503191</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -27876,7 +27876,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>51.13049313817427</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>93.60181557128027</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -28034,10 +28034,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28070,7 +28070,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
-        <v>74.0232244253308</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
         <v>286.0925768874155</v>
@@ -32943,13 +32943,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I26" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J26" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K26" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L26" t="n">
         <v>196.477585181553</v>
@@ -32958,7 +32958,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N26" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O26" t="n">
         <v>209.776231993146</v>
@@ -32970,16 +32970,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R26" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S26" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T26" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H27" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I27" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J27" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K27" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M27" t="n">
         <v>168.7893200645195</v>
@@ -33040,16 +33040,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O27" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P27" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R27" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S27" t="n">
         <v>12.37359824256949</v>
@@ -33058,7 +33058,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H28" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I28" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J28" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K28" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L28" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M28" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N28" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P28" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R28" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S28" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T28" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I29" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J29" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K29" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L29" t="n">
         <v>196.477585181553</v>
@@ -33195,7 +33195,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N29" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O29" t="n">
         <v>209.776231993146</v>
@@ -33207,16 +33207,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R29" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S29" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T29" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H30" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I30" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J30" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K30" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M30" t="n">
         <v>168.7893200645195</v>
@@ -33277,16 +33277,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O30" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P30" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R30" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S30" t="n">
         <v>12.37359824256949</v>
@@ -33295,7 +33295,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H31" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I31" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J31" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K31" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L31" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M31" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N31" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P31" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R31" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S31" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T31" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I32" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J32" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K32" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L32" t="n">
         <v>196.477585181553</v>
@@ -33432,7 +33432,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N32" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O32" t="n">
         <v>209.776231993146</v>
@@ -33444,16 +33444,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R32" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S32" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T32" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H33" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I33" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J33" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K33" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M33" t="n">
         <v>168.7893200645195</v>
@@ -33514,16 +33514,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O33" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P33" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R33" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S33" t="n">
         <v>12.37359824256949</v>
@@ -33532,7 +33532,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H34" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I34" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J34" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K34" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L34" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M34" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N34" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P34" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R34" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S34" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T34" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I35" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J35" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K35" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L35" t="n">
         <v>196.477585181553</v>
@@ -33669,7 +33669,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N35" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O35" t="n">
         <v>209.776231993146</v>
@@ -33681,16 +33681,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R35" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S35" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T35" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H36" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I36" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J36" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K36" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M36" t="n">
         <v>168.7893200645195</v>
@@ -33751,16 +33751,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P36" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R36" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S36" t="n">
         <v>12.37359824256949</v>
@@ -33769,7 +33769,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H37" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I37" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J37" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K37" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L37" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M37" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N37" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O37" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P37" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R37" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S37" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T37" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>196.2607649995564</v>
       </c>
       <c r="M3" t="n">
         <v>274.2838073416025</v>
@@ -34792,13 +34792,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44.25337393024172</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L5" t="n">
         <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>82.55611253552989</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>149.951891953036</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M12" t="n">
-        <v>328.4995306128187</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
         <v>543.714571154376</v>
       </c>
       <c r="O12" t="n">
-        <v>429.0814793495699</v>
+        <v>410.0717787928695</v>
       </c>
       <c r="P12" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
@@ -35740,13 +35740,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O15" t="n">
-        <v>429.0814793495699</v>
+        <v>243.0391066718371</v>
       </c>
       <c r="P15" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
-        <v>229.2086996061998</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
         <v>395.2245205299612</v>
@@ -36211,7 +36211,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
@@ -36220,7 +36220,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36448,16 +36448,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N24" t="n">
-        <v>428.0775398193789</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O24" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.7832499334201</v>
+        <v>308.7735493767197</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
-        <v>132.5813688279032</v>
+        <v>62.17602748516742</v>
       </c>
       <c r="L27" t="n">
         <v>395.2245205299612</v>
@@ -36691,7 +36691,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P27" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q27" t="n">
         <v>167.0326721210326</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L28" t="n">
         <v>120.492579780375</v>
@@ -36770,7 +36770,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P28" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K30" t="n">
-        <v>229.2086996061998</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
         <v>395.2245205299612</v>
@@ -36922,16 +36922,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P30" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L31" t="n">
         <v>120.492579780375</v>
@@ -37007,7 +37007,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P31" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516697</v>
       </c>
       <c r="L33" t="n">
         <v>395.2245205299612</v>
@@ -37159,13 +37159,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q33" t="n">
         <v>167.0326721210326</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L34" t="n">
         <v>120.492579780375</v>
@@ -37244,7 +37244,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P34" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>248.2184001629003</v>
@@ -37402,10 +37402,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L37" t="n">
         <v>120.492579780375</v>
@@ -37481,7 +37481,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P37" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K39" t="n">
         <v>248.2184001629003</v>
@@ -37639,10 +37639,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L42" t="n">
         <v>395.2245205299612</v>
@@ -37876,7 +37876,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P42" t="n">
-        <v>212.146218598423</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
         <v>167.0326721210326</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.0124396425415</v>
+        <v>105.0124396425416</v>
       </c>
       <c r="K44" t="n">
-        <v>280.8981351873249</v>
+        <v>280.8981351873248</v>
       </c>
       <c r="L44" t="n">
         <v>400.9729937182839</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
@@ -38113,10 +38113,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P45" t="n">
-        <v>327.7832499334201</v>
+        <v>308.7735493767197</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.39564078603548</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
